--- a/Photon_Dev/Projects/Sleeptrack2_Phase 4/SLEEPTRACK2_PHASE4_BOM.xlsx
+++ b/Photon_Dev/Projects/Sleeptrack2_Phase 4/SLEEPTRACK2_PHASE4_BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -196,31 +196,10 @@
     <t>50.8mm X 33.52 mm</t>
   </si>
   <si>
-    <t>R1,R2, R3</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>Accelerometer, Gyroscope, Magnetometer, 3 Axis Sensor I²C Output</t>
-  </si>
-  <si>
-    <t>BNO055</t>
-  </si>
-  <si>
-    <t>Solder Jumper (exposed pads only)</t>
-  </si>
-  <si>
-    <t>Do Not Populate</t>
-  </si>
-  <si>
-    <t>BNO055 Host Board</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sleeptrack Phase 4 </t>
+  </si>
+  <si>
+    <t>15.24x15.24 (600MIL square)</t>
   </si>
 </sst>
 </file>
@@ -270,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -321,19 +300,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -371,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -411,44 +377,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A22" sqref="A22:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -791,12 +726,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1053,88 +988,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="17">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="18">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="18">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="19">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A22:D22"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1144,10 +999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1167,6 +1022,16 @@
         <v>57</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
